--- a/KindomRush/Assets/Data/Excel/Monsters.xlsx
+++ b/KindomRush/Assets/Data/Excel/Monsters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13230"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Monsters" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>id</t>
   </si>
@@ -24,6 +24,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>modelName</t>
+  </si>
+  <si>
     <t>attackSpeed</t>
   </si>
   <si>
@@ -42,7 +45,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>食人魔</t>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>wulf</t>
   </si>
   <si>
     <t>普通食人魔</t>
@@ -81,8 +87,115 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,115 +216,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,24 +232,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -256,19 +286,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,67 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,48 +413,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,6 +423,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,6 +484,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -458,65 +523,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,21 +1024,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,80 +1058,90 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1134,8 +1151,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1145,8 +1163,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1156,8 +1175,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1167,8 +1187,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1178,8 +1199,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1189,8 +1211,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1200,6 +1223,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
